--- a/assets/db-orig-and-updated.xlsx
+++ b/assets/db-orig-and-updated.xlsx
@@ -4935,7 +4935,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0000"/>
+    <numFmt numFmtId="165" formatCode="00000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -5743,7 +5743,7 @@
   <dimension ref="A1:G260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/db-orig-and-updated.xlsx
+++ b/assets/db-orig-and-updated.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christine\Dropbox\541-Info\databases-project-2\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24990" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="databases" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="813">
   <si>
     <t>AAPT</t>
   </si>
@@ -2479,6 +2474,9 @@
   </si>
   <si>
     <t>isRestricted</t>
+  </si>
+  <si>
+    <t>internalNote</t>
   </si>
 </sst>
 </file>
@@ -3283,7 +3281,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3291,10 +3289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G260"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3305,10 +3303,11 @@
     <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="74.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>803</v>
       </c>
@@ -3330,8 +3329,11 @@
       <c r="G1" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3354,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3374,7 +3376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3440,7 +3442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3463,7 +3465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3483,7 +3485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3503,7 +3505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3526,7 +3528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3546,7 +3548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3566,7 +3568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3586,7 +3588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3606,7 +3608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3626,7 +3628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
